--- a/results/I3_N5_M2_T30_C100_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1855.12277434706</v>
+        <v>1096.046877998744</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.97335263734467</v>
+        <v>28.6688431653422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.73086563712315</v>
+        <v>10.02775222941386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.350287346831242</v>
+        <v>3.405787062815562</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1685.440000000007</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.0900000000001</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>12.46902814888773</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.05123405644787</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.43528232449546</v>
+        <v>22.43528232449546</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.02053818239904</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.81602556806575</v>
+        <v>25.76483304181483</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.1661479616186</v>
+        <v>26.7855696713267</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1060,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,99 +1113,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.665</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.505</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.0750000000006</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>196.6550000000007</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>200.4400000000015</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>203.0950000000007</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.5150000000015</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>111.565</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>120.73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>111.1650000000008</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>116.53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>116.9850000000008</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>250.5600000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>264.4200000000004</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>270.9450000000012</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>272.1550000000004</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>261.9650000000012</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.995</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.665</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.505</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000000008</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>250.5600000000004</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>264.4200000000004</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>270.9450000000012</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>272.1550000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>261.9650000000012</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.995000000000005</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.665</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.505</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>150.5600000000004</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>164.4200000000004</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>170.9450000000012</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>172.1550000000004</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>161.9650000000012</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2194,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2205,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2216,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2329,61 +2245,6 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
